--- a/Labo3_polarisation/polarisation.xlsx
+++ b/Labo3_polarisation/polarisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alext\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8cc6f8fcd8ecae5/Bureau/Labos-TPOP/Labo3_polarisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8C04F-BE7F-4C26-916D-199E05BEBB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1AF8C04F-BE7F-4C26-916D-199E05BEBB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD958109-65E7-4C7E-8DAB-58A3C37C76F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{001F736E-52F4-4F40-88A6-2D02311838C9}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,10 +430,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
@@ -457,6 +457,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -465,6 +468,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -473,6 +479,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -481,6 +490,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -489,6 +501,9 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -497,6 +512,9 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -505,6 +523,9 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -513,6 +534,9 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -521,6 +545,9 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -529,6 +556,9 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -537,6 +567,9 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -545,6 +578,9 @@
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -553,6 +589,9 @@
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -561,6 +600,9 @@
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -568,6 +610,9 @@
       </c>
       <c r="B16">
         <v>15</v>
+      </c>
+      <c r="C16">
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +628,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -701,7 +746,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" customWidth="1"/>

--- a/Labo3_polarisation/polarisation.xlsx
+++ b/Labo3_polarisation/polarisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8cc6f8fcd8ecae5/Bureau/Labos-TPOP/Labo3_polarisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1AF8C04F-BE7F-4C26-916D-199E05BEBB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD958109-65E7-4C7E-8DAB-58A3C37C76F0}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{1AF8C04F-BE7F-4C26-916D-199E05BEBB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525014C7-BC94-44EE-B2E3-AC5951AEF908}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{001F736E-52F4-4F40-88A6-2D02311838C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{001F736E-52F4-4F40-88A6-2D02311838C9}"/>
   </bookViews>
   <sheets>
     <sheet name="pol_TE-TM" sheetId="2" r:id="rId1"/>
@@ -71,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AFAEAC-D91E-45C9-A1BC-68DA898F2A85}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,10 +466,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>47.3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -466,10 +477,10 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>48.9</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -477,10 +488,10 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>54.4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -488,10 +499,10 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>57.8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -499,10 +510,10 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>60.9</v>
       </c>
       <c r="C6">
-        <v>9.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -510,10 +521,10 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>65.5</v>
       </c>
       <c r="C7">
-        <v>11.2</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -521,10 +532,10 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>72.2</v>
       </c>
       <c r="C8">
-        <v>12.9</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -532,10 +543,10 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>78.8</v>
       </c>
       <c r="C9">
-        <v>14.6</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -543,76 +554,109 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>87.3</v>
       </c>
       <c r="C10">
-        <v>16.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>55</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
+        <v>52.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>87.9</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90.6</v>
       </c>
       <c r="C12">
-        <v>19.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>93.2</v>
       </c>
       <c r="C13">
-        <v>21.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
+        <v>57.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>96.4</v>
       </c>
       <c r="C14">
-        <v>23.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>103.2</v>
       </c>
       <c r="C15">
-        <v>24.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>111.8</v>
+      </c>
+      <c r="C16">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>195</v>
+      </c>
+      <c r="C18">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>80</v>
       </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>26.5</v>
+      <c r="B19">
+        <v>280</v>
+      </c>
+      <c r="C19">
+        <v>196.8</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +669,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,95 +686,152 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
+      <c r="B5">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
+      <c r="B6">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
+      <c r="B7">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>80</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
+      <c r="B12">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>110</v>
       </c>
+      <c r="B13">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>120</v>
       </c>
+      <c r="B14">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
+      <c r="B15">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -742,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570830BB-341D-4F0E-849E-9B8EF0582602}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,95 +868,209 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.16</v>
+      </c>
+      <c r="C2">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>0.19</v>
+      </c>
+      <c r="C3">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
+      <c r="B6">
+        <v>0.19</v>
+      </c>
+      <c r="C6">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
+      <c r="B7">
+        <v>0.18</v>
+      </c>
+      <c r="C7">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
+      <c r="B8">
+        <v>0.16</v>
+      </c>
+      <c r="C8">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
+      <c r="B9">
+        <v>0.13</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>80</v>
       </c>
+      <c r="B10">
+        <v>0.09</v>
+      </c>
+      <c r="C10">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
+      <c r="B11">
+        <v>0.05</v>
+      </c>
+      <c r="C11">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
+      <c r="B12">
+        <v>0.03</v>
+      </c>
+      <c r="C12">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>110</v>
       </c>
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>120</v>
       </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
+      <c r="B15">
+        <v>0.02</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0.11</v>
+      </c>
+      <c r="C18">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0.15</v>
+      </c>
+      <c r="C19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.17</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
